--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/62_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/62_11R22.xlsx
@@ -683,25 +683,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2286418605659838</v>
+        <v>0.2022278673415956</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.007487481361975501</v>
       </c>
       <c r="F2">
-        <v>0.4476256877643685</v>
+        <v>0.3883437733773492</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02594290329360358</v>
+        <v>0.0299525876193413</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002564847284773193</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -710,73 +710,73 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.01534085053127212</v>
+        <v>0.02094182787080249</v>
       </c>
       <c r="N2">
-        <v>0.02974716198938816</v>
+        <v>0.03318585403457712</v>
       </c>
       <c r="O2">
-        <v>0.07955268351463433</v>
+        <v>0.07551591960538651</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00232364718244743</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00135184277276667</v>
       </c>
       <c r="S2">
-        <v>0.04696276741955353</v>
+        <v>0.04781751904647121</v>
       </c>
       <c r="T2">
-        <v>0.001844424448398699</v>
+        <v>0.009471119733151075</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.007896907875347242</v>
       </c>
       <c r="V2">
-        <v>0.008145657074384242</v>
+        <v>0.01482658198043799</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.006229848235954951</v>
       </c>
       <c r="X2">
-        <v>0.03004987957805371</v>
+        <v>0.03344313585766082</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.035713572500001</v>
+        <v>0.03825674859410075</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.00499322211208687</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.001947497312168793</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.00495476557886092</v>
+        <v>0.01211462069384904</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.004234256159415955</v>
       </c>
       <c r="AF2">
-        <v>0.02034017435382522</v>
+        <v>0.02519078860322073</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0004139410213846818</v>
       </c>
       <c r="AI2">
-        <v>0.02513761138767244</v>
+        <v>0.02926816432373484</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -790,25 +790,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2030359476101878</v>
+        <v>0.1924170420662693</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4671898946942191</v>
+        <v>0.4366347816105404</v>
       </c>
       <c r="G3">
-        <v>0.0009979513723979152</v>
+        <v>0.005627242830179106</v>
       </c>
       <c r="H3">
-        <v>0.02609948168871957</v>
+        <v>0.02883431227065181</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0003362608765465273</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01521711615217846</v>
+        <v>0.01877325983677277</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1049924716440094</v>
+        <v>0.1017730962087946</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.004187449504442063</v>
       </c>
       <c r="S3">
-        <v>0.008126883096635232</v>
+        <v>0.01221814033626422</v>
       </c>
       <c r="T3">
-        <v>0.02376309779150702</v>
+        <v>0.02667425976951174</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01217228462583452</v>
+        <v>0.01595822761459552</v>
       </c>
       <c r="X3">
-        <v>0.01152589977333775</v>
+        <v>0.01536062667281516</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.0003790855352055211</v>
       </c>
       <c r="Z3">
-        <v>0.04537013605533151</v>
+        <v>0.04665057320827763</v>
       </c>
       <c r="AA3">
-        <v>0.01533219932413948</v>
+        <v>0.01887965745992456</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01676121160870259</v>
+        <v>0.02020081943296893</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02418365173443643</v>
+        <v>0.02706307369575596</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02523177282836344</v>
+        <v>0.0280320910704844</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -897,22 +897,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1152529212304223</v>
+        <v>0.1059537519554112</v>
       </c>
       <c r="E4">
-        <v>0.04413316267050671</v>
+        <v>0.04472007515110583</v>
       </c>
       <c r="F4">
-        <v>0.4624364012047548</v>
+        <v>0.4048766031435542</v>
       </c>
       <c r="G4">
-        <v>0.05115389306322299</v>
+        <v>0.05076488104615923</v>
       </c>
       <c r="H4">
-        <v>0.03923686602650097</v>
+        <v>0.04050439371027997</v>
       </c>
       <c r="I4">
-        <v>0.005497491812740805</v>
+        <v>0.01145499902702337</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -921,52 +921,52 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.005944314844051236</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00564112218012854</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.08291858815308162</v>
+        <v>0.07811408909051817</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.004808440092791501</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.004449977888918484</v>
+        <v>0.01055309595032341</v>
       </c>
       <c r="S4">
-        <v>0.001401171764439915</v>
+        <v>0.007928092538535551</v>
       </c>
       <c r="T4">
-        <v>0.0424684464222511</v>
+        <v>0.04328676465089256</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.001621783703160222</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03486477573522739</v>
+        <v>0.03674005073055029</v>
       </c>
       <c r="X4">
-        <v>0.004394526785374482</v>
+        <v>0.01050535288958179</v>
       </c>
       <c r="Y4">
-        <v>0.003681724392147476</v>
+        <v>0.009891634391994001</v>
       </c>
       <c r="Z4">
-        <v>0.04769709085191239</v>
+        <v>0.04778859550090565</v>
       </c>
       <c r="AA4">
-        <v>0.01538347037523616</v>
+        <v>0.01996676605840529</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0179976978033023</v>
+        <v>0.02221759987258778</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01205174607016898</v>
+        <v>0.01709817182483996</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01498004774979135</v>
+        <v>0.01961942164720035</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1004,40 +1004,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2818162333898037</v>
+        <v>0.2422211585652941</v>
       </c>
       <c r="E5">
-        <v>0.1201554016982328</v>
+        <v>0.107832746582354</v>
       </c>
       <c r="F5">
-        <v>0.261023220444124</v>
+        <v>0.2249359574385186</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.006679026200989892</v>
       </c>
       <c r="H5">
-        <v>0.02075029777593906</v>
+        <v>0.02519742967019477</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008593943463216383</v>
+        <v>0.01509187018188523</v>
       </c>
       <c r="K5">
-        <v>0.01089467913624654</v>
+        <v>0.01700446836819745</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01866724908379461</v>
+        <v>0.02346579435141502</v>
       </c>
       <c r="N5">
-        <v>0.02698215942236624</v>
+        <v>0.03037796710525244</v>
       </c>
       <c r="O5">
-        <v>0.08647845761436396</v>
+        <v>0.07983715242072018</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1049,55 +1049,55 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.01517961559298407</v>
+        <v>0.02056652975216587</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.007421861001979395</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.005712868888609325</v>
+        <v>0.01269683711893177</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.003213977282477316</v>
       </c>
       <c r="X5">
-        <v>0.02458992941514733</v>
+        <v>0.02838930981329043</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.05505691056833358</v>
+        <v>0.05371646650454448</v>
       </c>
       <c r="AA5">
-        <v>0.002399732318684702</v>
+        <v>0.009942631553762757</v>
       </c>
       <c r="AB5">
-        <v>0.01356999317160426</v>
+        <v>0.01922845299703653</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.006842634444460041</v>
+        <v>0.01363600956642647</v>
       </c>
       <c r="AE5">
-        <v>0.001983927539412212</v>
+        <v>0.009596973651371422</v>
       </c>
       <c r="AF5">
-        <v>0.01747978806359695</v>
+        <v>0.02247865974913569</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.0003795896105270282</v>
       </c>
       <c r="AI5">
-        <v>0.02182295796908004</v>
+        <v>0.02608913051352927</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1111,40 +1111,40 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2630237311841145</v>
+        <v>0.2378787880602266</v>
       </c>
       <c r="E6">
-        <v>0.05386727994944034</v>
+        <v>0.05340873513557569</v>
       </c>
       <c r="F6">
-        <v>0.3375679340521504</v>
+        <v>0.3036246589961589</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008754550054492817</v>
       </c>
       <c r="H6">
-        <v>0.04076941166413879</v>
+        <v>0.04185678710085436</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004755764058608988</v>
+        <v>0.0100937721874494</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.001019892967449335</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01923994433078173</v>
+        <v>0.02286840804307506</v>
       </c>
       <c r="N6">
-        <v>0.01102200968272733</v>
+        <v>0.01562042295579223</v>
       </c>
       <c r="O6">
-        <v>0.09964430582855854</v>
+        <v>0.09378277254539627</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1156,46 +1156,46 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.009658899533697004</v>
+        <v>0.0144181984972618</v>
       </c>
       <c r="T6">
-        <v>0.002155024117859209</v>
+        <v>0.00779999338368171</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.00428031002709753</v>
+        <v>0.009674435227779193</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.005760935157820869</v>
       </c>
       <c r="X6">
-        <v>0.02934805327942772</v>
+        <v>0.03178347320945011</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.06529339219559213</v>
+        <v>0.06348624179782869</v>
       </c>
       <c r="AA6">
-        <v>0.00363344543396361</v>
+        <v>0.009103919018376637</v>
       </c>
       <c r="AB6">
-        <v>0.008704511804244201</v>
+        <v>0.0135764556109032</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01231079178945854</v>
+        <v>0.01675709219087264</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.004184283519911789</v>
       </c>
       <c r="AF6">
-        <v>0.01343873810873514</v>
+        <v>0.01775190882686376</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.02128645295940439</v>
+        <v>0.02467337056182232</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3031190035712913</v>
+        <v>0.2716031974330277</v>
       </c>
       <c r="E7">
-        <v>0.0883979757449974</v>
+        <v>0.08436418054987638</v>
       </c>
       <c r="F7">
-        <v>0.1644632650271061</v>
+        <v>0.150693920716901</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1233,37 +1233,37 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0002165397846571985</v>
       </c>
       <c r="J7">
-        <v>0.01230553751428857</v>
+        <v>0.01801076621131503</v>
       </c>
       <c r="K7">
-        <v>0.07168395818286837</v>
+        <v>0.0697893797109362</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.02144785532583472</v>
+        <v>0.02598296444637585</v>
       </c>
       <c r="N7">
-        <v>0.0267374004219901</v>
+        <v>0.03059550395212213</v>
       </c>
       <c r="O7">
-        <v>0.1175593156318788</v>
+        <v>0.109793178662871</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.0003371955493655521</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.01016620169494429</v>
+        <v>0.01614524265429765</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1272,37 +1272,37 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.002669548798533916</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.0018395591131222</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.00106642905698535</v>
       </c>
       <c r="Y7">
-        <v>0.0004191753927770262</v>
+        <v>0.007645732192618827</v>
       </c>
       <c r="Z7">
-        <v>0.0280513473407585</v>
+        <v>0.03174127962112586</v>
       </c>
       <c r="AA7">
-        <v>0.03753397820413362</v>
+        <v>0.040010234451952</v>
       </c>
       <c r="AB7">
-        <v>0.001741637330001056</v>
+        <v>0.008798933048156521</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.02595129983818656</v>
+        <v>0.02991001589362737</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.005376797620421927</v>
       </c>
       <c r="AF7">
-        <v>0.07626384911908973</v>
+        <v>0.07378309325176312</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.01415819965985387</v>
+        <v>0.01962630727994714</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1325,52 +1325,52 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2427927591715783</v>
+        <v>0.2106756628772977</v>
       </c>
       <c r="E8">
-        <v>0.03098489674869604</v>
+        <v>0.03469687696533146</v>
       </c>
       <c r="F8">
-        <v>0.2733551090779163</v>
+        <v>0.2360681349489719</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.003800317309409391</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003035920536644409</v>
       </c>
       <c r="J8">
-        <v>0.01799409903328669</v>
+        <v>0.02390358164647598</v>
       </c>
       <c r="K8">
-        <v>0.06635500826628288</v>
+        <v>0.06408383744562071</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.004391950257494481</v>
       </c>
       <c r="M8">
-        <v>0.05005877959622725</v>
+        <v>0.05054425254308053</v>
       </c>
       <c r="N8">
-        <v>0.01362785576705813</v>
+        <v>0.02027592505149497</v>
       </c>
       <c r="O8">
-        <v>0.1248843838207668</v>
+        <v>0.1127124781978672</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.00283306957817605</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.009923411051738116</v>
+        <v>0.01719811823156463</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1379,46 +1379,46 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.004344003853789682</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.006076706673751485</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.003939752181172994</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.005960213969700644</v>
       </c>
       <c r="Z8">
-        <v>0.0187218221550144</v>
+        <v>0.02450820429823583</v>
       </c>
       <c r="AA8">
-        <v>0.03575507182462356</v>
+        <v>0.03866013691633959</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.004990631215198611</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.0005800333182918083</v>
       </c>
       <c r="AD8">
-        <v>0.0332449196825322</v>
+        <v>0.03657459806350123</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.003413904941063519</v>
       </c>
       <c r="AF8">
-        <v>0.06976495105458219</v>
+        <v>0.06691695980968149</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.0004451883569815222</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.01253693274969687</v>
+        <v>0.01936954081286194</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2237373938088804</v>
+        <v>0.198631655127862</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.006833869992026506</v>
       </c>
       <c r="F9">
-        <v>0.321200441171123</v>
+        <v>0.2815999634778395</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1450,34 +1450,34 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.017795087159188</v>
+        <v>0.02331716145200837</v>
       </c>
       <c r="K9">
-        <v>0.05146105269463699</v>
+        <v>0.05197631263843989</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.007968073198572604</v>
       </c>
       <c r="M9">
-        <v>0.0439549822073467</v>
+        <v>0.04558654761938071</v>
       </c>
       <c r="N9">
-        <v>0.01351457695460795</v>
+        <v>0.01967325024503735</v>
       </c>
       <c r="O9">
-        <v>0.1319441816698571</v>
+        <v>0.1204899620933816</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.005182404025865934</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0169653724473665</v>
+        <v>0.02261084220675576</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.005319254222642862</v>
       </c>
       <c r="W9">
-        <v>0.0002526385400780438</v>
+        <v>0.008383632020752322</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.001560146526170076</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.004483142798021395</v>
       </c>
       <c r="Z9">
-        <v>0.02717019437448926</v>
+        <v>0.03129799939320484</v>
       </c>
       <c r="AA9">
-        <v>0.03375309313982502</v>
+        <v>0.0369018871166114</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.001622885131564411</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.04125919434615193</v>
+        <v>0.04329167828616117</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.001390655562317052</v>
       </c>
       <c r="AF9">
-        <v>0.06176165981150996</v>
+        <v>0.06074500980720678</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.01523013167493904</v>
+        <v>0.02113366705817745</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2162353177400979</v>
+        <v>0.1930670815396631</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001621225922547748</v>
       </c>
       <c r="F10">
-        <v>0.3406231584542422</v>
+        <v>0.2994769303481208</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02344090380696458</v>
+        <v>0.02813758103578399</v>
       </c>
       <c r="K10">
-        <v>0.03202418264114629</v>
+        <v>0.03548030358633512</v>
       </c>
       <c r="L10">
-        <v>0.01690920482654852</v>
+        <v>0.02254991991892535</v>
       </c>
       <c r="M10">
-        <v>0.0453104841023523</v>
+        <v>0.0468463126881376</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.006749988257526516</v>
       </c>
       <c r="O10">
-        <v>0.1346306086304135</v>
+        <v>0.1232568435890316</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.00356720438500195</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.003486219972806282</v>
+        <v>0.0110669825140757</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1593,46 +1593,46 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.002870534317371753</v>
       </c>
       <c r="W10">
-        <v>0.003111863179336475</v>
+        <v>0.01074673216191237</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.0002290534924206788</v>
+        <v>0.008280579994891233</v>
       </c>
       <c r="Z10">
-        <v>0.01709965846499895</v>
+        <v>0.02271284696031603</v>
       </c>
       <c r="AA10">
-        <v>0.04596689557064008</v>
+        <v>0.04740785186025942</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.004637889309083848</v>
       </c>
       <c r="AD10">
-        <v>0.04061832093084964</v>
+        <v>0.04283231605633148</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.0696072112659024</v>
+        <v>0.06763139143192931</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.003815424603664537</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01070691692128019</v>
+        <v>0.01724405951909062</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,52 +1646,52 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2984912183988795</v>
+        <v>0.2587224494303021</v>
       </c>
       <c r="E11">
-        <v>0.09495260636911958</v>
+        <v>0.08799611988913193</v>
       </c>
       <c r="F11">
-        <v>0.1933079313486687</v>
+        <v>0.1704956685356178</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.003990599138047928</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.005462754418352743</v>
       </c>
       <c r="J11">
-        <v>0.009431081183990969</v>
+        <v>0.01626144534254061</v>
       </c>
       <c r="K11">
-        <v>0.0657346643952554</v>
+        <v>0.06348837691004856</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.02129885383129379</v>
+        <v>0.02621602469088981</v>
       </c>
       <c r="N11">
-        <v>0.02529810914559221</v>
+        <v>0.02957056353685756</v>
       </c>
       <c r="O11">
-        <v>0.09593805322703408</v>
+        <v>0.08882270371679911</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.001977596387755333</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02844398971204188</v>
+        <v>0.03220929943531362</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1700,37 +1700,37 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.0007466791188451945</v>
+        <v>0.008977048175553386</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.002780588387495766</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.004701857982630716</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.0003331439933172122</v>
       </c>
       <c r="Z11">
-        <v>0.02949953749219163</v>
+        <v>0.0330946832765572</v>
       </c>
       <c r="AA11">
-        <v>0.01929161178276333</v>
+        <v>0.02453236838593181</v>
       </c>
       <c r="AB11">
-        <v>0.005679545711246983</v>
+        <v>0.01311469163808167</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.02176445753184757</v>
+        <v>0.02660656882413126</v>
       </c>
       <c r="AE11">
-        <v>0.00469890343598246</v>
+        <v>0.01229213785047731</v>
       </c>
       <c r="AF11">
-        <v>0.06308774211551206</v>
+        <v>0.06126816266718416</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.02233501519973443</v>
+        <v>0.02708514738698229</v>
       </c>
     </row>
   </sheetData>
@@ -1873,97 +1873,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2286418605659838</v>
+        <v>0.2022278673415956</v>
       </c>
       <c r="E2">
-        <v>0.2286418605659838</v>
+        <v>0.2097153487035711</v>
       </c>
       <c r="F2">
-        <v>0.6762675483303523</v>
+        <v>0.5980591220809204</v>
       </c>
       <c r="G2">
-        <v>0.6762675483303523</v>
+        <v>0.5980591220809204</v>
       </c>
       <c r="H2">
-        <v>0.7022104516239559</v>
+        <v>0.6280117097002617</v>
       </c>
       <c r="I2">
-        <v>0.7022104516239559</v>
+        <v>0.6280117097002617</v>
       </c>
       <c r="J2">
-        <v>0.7022104516239559</v>
+        <v>0.6305765569850349</v>
       </c>
       <c r="K2">
-        <v>0.7022104516239559</v>
+        <v>0.6305765569850349</v>
       </c>
       <c r="L2">
-        <v>0.7022104516239559</v>
+        <v>0.6305765569850349</v>
       </c>
       <c r="M2">
-        <v>0.717551302155228</v>
+        <v>0.6515183848558374</v>
       </c>
       <c r="N2">
-        <v>0.7472984641446162</v>
+        <v>0.6847042388904144</v>
       </c>
       <c r="O2">
-        <v>0.8268511476592505</v>
+        <v>0.7602201584958009</v>
       </c>
       <c r="P2">
-        <v>0.8268511476592505</v>
+        <v>0.7602201584958009</v>
       </c>
       <c r="Q2">
-        <v>0.8268511476592505</v>
+        <v>0.7625438056782483</v>
       </c>
       <c r="R2">
-        <v>0.8268511476592505</v>
+        <v>0.763895648451015</v>
       </c>
       <c r="S2">
-        <v>0.873813915078804</v>
+        <v>0.8117131674974862</v>
       </c>
       <c r="T2">
-        <v>0.8756583395272027</v>
+        <v>0.8211842872306373</v>
       </c>
       <c r="U2">
-        <v>0.8756583395272027</v>
+        <v>0.8290811951059845</v>
       </c>
       <c r="V2">
-        <v>0.8838039966015869</v>
+        <v>0.8439077770864225</v>
       </c>
       <c r="W2">
-        <v>0.8838039966015869</v>
+        <v>0.8501376253223775</v>
       </c>
       <c r="X2">
-        <v>0.9138538761796406</v>
+        <v>0.8835807611800383</v>
       </c>
       <c r="Y2">
-        <v>0.9138538761796406</v>
+        <v>0.8835807611800383</v>
       </c>
       <c r="Z2">
-        <v>0.9495674486796416</v>
+        <v>0.921837509774139</v>
       </c>
       <c r="AA2">
-        <v>0.9495674486796416</v>
+        <v>0.9268307318862259</v>
       </c>
       <c r="AB2">
-        <v>0.9495674486796416</v>
+        <v>0.9287782291983947</v>
       </c>
       <c r="AC2">
-        <v>0.9495674486796416</v>
+        <v>0.9287782291983947</v>
       </c>
       <c r="AD2">
-        <v>0.9545222142585025</v>
+        <v>0.9408928498922438</v>
       </c>
       <c r="AE2">
-        <v>0.9545222142585025</v>
+        <v>0.9451271060516597</v>
       </c>
       <c r="AF2">
-        <v>0.9748623886123277</v>
+        <v>0.9703178946548805</v>
       </c>
       <c r="AG2">
-        <v>0.9748623886123277</v>
+        <v>0.9703178946548805</v>
       </c>
       <c r="AH2">
-        <v>0.9748623886123277</v>
+        <v>0.9707318356762652</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1980,97 +1980,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2030359476101878</v>
+        <v>0.1924170420662693</v>
       </c>
       <c r="E3">
-        <v>0.2030359476101878</v>
+        <v>0.1924170420662693</v>
       </c>
       <c r="F3">
-        <v>0.670225842304407</v>
+        <v>0.6290518236768097</v>
       </c>
       <c r="G3">
-        <v>0.6712237936768048</v>
+        <v>0.6346790665069888</v>
       </c>
       <c r="H3">
-        <v>0.6973232753655244</v>
+        <v>0.6635133787776406</v>
       </c>
       <c r="I3">
-        <v>0.6973232753655244</v>
+        <v>0.6635133787776406</v>
       </c>
       <c r="J3">
-        <v>0.6973232753655244</v>
+        <v>0.6638496396541871</v>
       </c>
       <c r="K3">
-        <v>0.6973232753655244</v>
+        <v>0.6638496396541871</v>
       </c>
       <c r="L3">
-        <v>0.6973232753655244</v>
+        <v>0.6638496396541871</v>
       </c>
       <c r="M3">
-        <v>0.7125403915177029</v>
+        <v>0.6826228994909599</v>
       </c>
       <c r="N3">
-        <v>0.7125403915177029</v>
+        <v>0.6826228994909599</v>
       </c>
       <c r="O3">
-        <v>0.8175328631617123</v>
+        <v>0.7843959956997545</v>
       </c>
       <c r="P3">
-        <v>0.8175328631617123</v>
+        <v>0.7843959956997545</v>
       </c>
       <c r="Q3">
-        <v>0.8175328631617123</v>
+        <v>0.7843959956997545</v>
       </c>
       <c r="R3">
-        <v>0.8175328631617123</v>
+        <v>0.7885834452041965</v>
       </c>
       <c r="S3">
-        <v>0.8256597462583475</v>
+        <v>0.8008015855404608</v>
       </c>
       <c r="T3">
-        <v>0.8494228440498545</v>
+        <v>0.8274758453099725</v>
       </c>
       <c r="U3">
-        <v>0.8494228440498545</v>
+        <v>0.8274758453099725</v>
       </c>
       <c r="V3">
-        <v>0.8494228440498545</v>
+        <v>0.8274758453099725</v>
       </c>
       <c r="W3">
-        <v>0.861595128675689</v>
+        <v>0.8434340729245681</v>
       </c>
       <c r="X3">
-        <v>0.8731210284490267</v>
+        <v>0.8587946995973832</v>
       </c>
       <c r="Y3">
-        <v>0.8731210284490267</v>
+        <v>0.8591737851325887</v>
       </c>
       <c r="Z3">
-        <v>0.9184911645043582</v>
+        <v>0.9058243583408663</v>
       </c>
       <c r="AA3">
-        <v>0.9338233638284976</v>
+        <v>0.9247040158007909</v>
       </c>
       <c r="AB3">
-        <v>0.9338233638284976</v>
+        <v>0.9247040158007909</v>
       </c>
       <c r="AC3">
-        <v>0.9338233638284976</v>
+        <v>0.9247040158007909</v>
       </c>
       <c r="AD3">
-        <v>0.9505845754372002</v>
+        <v>0.9449048352337598</v>
       </c>
       <c r="AE3">
-        <v>0.9505845754372002</v>
+        <v>0.9449048352337598</v>
       </c>
       <c r="AF3">
-        <v>0.9747682271716367</v>
+        <v>0.9719679089295158</v>
       </c>
       <c r="AG3">
-        <v>0.9747682271716367</v>
+        <v>0.9719679089295158</v>
       </c>
       <c r="AH3">
-        <v>0.9747682271716367</v>
+        <v>0.9719679089295158</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -2087,97 +2087,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1152529212304223</v>
+        <v>0.1059537519554112</v>
       </c>
       <c r="E4">
-        <v>0.159386083900929</v>
+        <v>0.150673827106517</v>
       </c>
       <c r="F4">
-        <v>0.6218224851056837</v>
+        <v>0.5555504302500712</v>
       </c>
       <c r="G4">
-        <v>0.6729763781689067</v>
+        <v>0.6063153112962305</v>
       </c>
       <c r="H4">
-        <v>0.7122132441954077</v>
+        <v>0.6468197050065104</v>
       </c>
       <c r="I4">
-        <v>0.7177107360081485</v>
+        <v>0.6582747040335338</v>
       </c>
       <c r="J4">
-        <v>0.7177107360081485</v>
+        <v>0.6582747040335338</v>
       </c>
       <c r="K4">
-        <v>0.7177107360081485</v>
+        <v>0.6582747040335338</v>
       </c>
       <c r="L4">
-        <v>0.7177107360081485</v>
+        <v>0.6642190188775851</v>
       </c>
       <c r="M4">
-        <v>0.7177107360081485</v>
+        <v>0.6698601410577136</v>
       </c>
       <c r="N4">
-        <v>0.7177107360081485</v>
+        <v>0.6698601410577136</v>
       </c>
       <c r="O4">
-        <v>0.8006293241612301</v>
+        <v>0.7479742301482318</v>
       </c>
       <c r="P4">
-        <v>0.8006293241612301</v>
+        <v>0.7527826702410233</v>
       </c>
       <c r="Q4">
-        <v>0.8006293241612301</v>
+        <v>0.7527826702410233</v>
       </c>
       <c r="R4">
-        <v>0.8050793020501485</v>
+        <v>0.7633357661913467</v>
       </c>
       <c r="S4">
-        <v>0.8064804738145884</v>
+        <v>0.7712638587298822</v>
       </c>
       <c r="T4">
-        <v>0.8489489202368395</v>
+        <v>0.8145506233807748</v>
       </c>
       <c r="U4">
-        <v>0.8489489202368395</v>
+        <v>0.816172407083935</v>
       </c>
       <c r="V4">
-        <v>0.8489489202368395</v>
+        <v>0.816172407083935</v>
       </c>
       <c r="W4">
-        <v>0.8838136959720669</v>
+        <v>0.8529124578144853</v>
       </c>
       <c r="X4">
-        <v>0.8882082227574414</v>
+        <v>0.8634178107040671</v>
       </c>
       <c r="Y4">
-        <v>0.8918899471495888</v>
+        <v>0.8733094450960611</v>
       </c>
       <c r="Z4">
-        <v>0.9395870380015012</v>
+        <v>0.9210980405969668</v>
       </c>
       <c r="AA4">
-        <v>0.9549705083767374</v>
+        <v>0.9410648066553721</v>
       </c>
       <c r="AB4">
-        <v>0.9549705083767374</v>
+        <v>0.9410648066553721</v>
       </c>
       <c r="AC4">
-        <v>0.9549705083767374</v>
+        <v>0.9410648066553721</v>
       </c>
       <c r="AD4">
-        <v>0.9729682061800397</v>
+        <v>0.9632824065279598</v>
       </c>
       <c r="AE4">
-        <v>0.9729682061800397</v>
+        <v>0.9632824065279598</v>
       </c>
       <c r="AF4">
-        <v>0.9850199522502087</v>
+        <v>0.9803805783527998</v>
       </c>
       <c r="AG4">
-        <v>0.9850199522502087</v>
+        <v>0.9803805783527998</v>
       </c>
       <c r="AH4">
-        <v>0.9850199522502087</v>
+        <v>0.9803805783527998</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2194,97 +2194,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2818162333898037</v>
+        <v>0.2422211585652941</v>
       </c>
       <c r="E5">
-        <v>0.4019716350880365</v>
+        <v>0.3500539051476481</v>
       </c>
       <c r="F5">
-        <v>0.6629948555321605</v>
+        <v>0.5749898625861667</v>
       </c>
       <c r="G5">
-        <v>0.6629948555321605</v>
+        <v>0.5816688887871566</v>
       </c>
       <c r="H5">
-        <v>0.6837451533080996</v>
+        <v>0.6068663184573514</v>
       </c>
       <c r="I5">
-        <v>0.6837451533080996</v>
+        <v>0.6068663184573514</v>
       </c>
       <c r="J5">
-        <v>0.692339096771316</v>
+        <v>0.6219581886392366</v>
       </c>
       <c r="K5">
-        <v>0.7032337759075625</v>
+        <v>0.638962657007434</v>
       </c>
       <c r="L5">
-        <v>0.7032337759075625</v>
+        <v>0.638962657007434</v>
       </c>
       <c r="M5">
-        <v>0.7219010249913571</v>
+        <v>0.6624284513588491</v>
       </c>
       <c r="N5">
-        <v>0.7488831844137234</v>
+        <v>0.6928064184641015</v>
       </c>
       <c r="O5">
-        <v>0.8353616420280874</v>
+        <v>0.7726435708848217</v>
       </c>
       <c r="P5">
-        <v>0.8353616420280874</v>
+        <v>0.7726435708848217</v>
       </c>
       <c r="Q5">
-        <v>0.8353616420280874</v>
+        <v>0.7726435708848217</v>
       </c>
       <c r="R5">
-        <v>0.8353616420280874</v>
+        <v>0.7726435708848217</v>
       </c>
       <c r="S5">
-        <v>0.8505412576210715</v>
+        <v>0.7932101006369876</v>
       </c>
       <c r="T5">
-        <v>0.8505412576210715</v>
+        <v>0.800631961638967</v>
       </c>
       <c r="U5">
-        <v>0.8505412576210715</v>
+        <v>0.800631961638967</v>
       </c>
       <c r="V5">
-        <v>0.8562541265096808</v>
+        <v>0.8133287987578988</v>
       </c>
       <c r="W5">
-        <v>0.8562541265096808</v>
+        <v>0.8165427760403761</v>
       </c>
       <c r="X5">
-        <v>0.8808440559248282</v>
+        <v>0.8449320858536665</v>
       </c>
       <c r="Y5">
-        <v>0.8808440559248282</v>
+        <v>0.8449320858536665</v>
       </c>
       <c r="Z5">
-        <v>0.9359009664931618</v>
+        <v>0.8986485523582111</v>
       </c>
       <c r="AA5">
-        <v>0.9383006988118465</v>
+        <v>0.9085911839119738</v>
       </c>
       <c r="AB5">
-        <v>0.9518706919834508</v>
+        <v>0.9278196369090104</v>
       </c>
       <c r="AC5">
-        <v>0.9518706919834508</v>
+        <v>0.9278196369090104</v>
       </c>
       <c r="AD5">
-        <v>0.9587133264279109</v>
+        <v>0.9414556464754369</v>
       </c>
       <c r="AE5">
-        <v>0.9606972539673231</v>
+        <v>0.9510526201268084</v>
       </c>
       <c r="AF5">
-        <v>0.97817704203092</v>
+        <v>0.973531279875944</v>
       </c>
       <c r="AG5">
-        <v>0.97817704203092</v>
+        <v>0.973531279875944</v>
       </c>
       <c r="AH5">
-        <v>0.97817704203092</v>
+        <v>0.973910869486471</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2301,100 +2301,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2630237311841145</v>
+        <v>0.2378787880602266</v>
       </c>
       <c r="E6">
-        <v>0.3168910111335548</v>
+        <v>0.2912875231958023</v>
       </c>
       <c r="F6">
-        <v>0.6544589451857052</v>
+        <v>0.5949121821919612</v>
       </c>
       <c r="G6">
-        <v>0.6544589451857052</v>
+        <v>0.5957876371974105</v>
       </c>
       <c r="H6">
-        <v>0.6952283568498441</v>
+        <v>0.6376444242982648</v>
       </c>
       <c r="I6">
-        <v>0.6952283568498441</v>
+        <v>0.6376444242982648</v>
       </c>
       <c r="J6">
-        <v>0.6999841209084531</v>
+        <v>0.6477381964857143</v>
       </c>
       <c r="K6">
-        <v>0.6999841209084531</v>
+        <v>0.6487580894531636</v>
       </c>
       <c r="L6">
-        <v>0.6999841209084531</v>
+        <v>0.6487580894531636</v>
       </c>
       <c r="M6">
-        <v>0.7192240652392348</v>
+        <v>0.6716264974962387</v>
       </c>
       <c r="N6">
-        <v>0.7302460749219621</v>
+        <v>0.687246920452031</v>
       </c>
       <c r="O6">
-        <v>0.8298903807505207</v>
+        <v>0.7810296929974272</v>
       </c>
       <c r="P6">
-        <v>0.8298903807505207</v>
+        <v>0.7810296929974272</v>
       </c>
       <c r="Q6">
-        <v>0.8298903807505207</v>
+        <v>0.7810296929974272</v>
       </c>
       <c r="R6">
-        <v>0.8298903807505207</v>
+        <v>0.7810296929974272</v>
       </c>
       <c r="S6">
-        <v>0.8395492802842177</v>
+        <v>0.795447891494689</v>
       </c>
       <c r="T6">
-        <v>0.8417043044020769</v>
+        <v>0.8032478848783707</v>
       </c>
       <c r="U6">
-        <v>0.8417043044020769</v>
+        <v>0.8032478848783707</v>
       </c>
       <c r="V6">
-        <v>0.8459846144291744</v>
+        <v>0.81292232010615</v>
       </c>
       <c r="W6">
-        <v>0.8459846144291744</v>
+        <v>0.8186832552639708</v>
       </c>
       <c r="X6">
-        <v>0.8753326677086021</v>
+        <v>0.8504667284734209</v>
       </c>
       <c r="Y6">
-        <v>0.8753326677086021</v>
+        <v>0.8504667284734209</v>
       </c>
       <c r="Z6">
-        <v>0.9406260599041942</v>
+        <v>0.9139529702712496</v>
       </c>
       <c r="AA6">
-        <v>0.9442595053381578</v>
+        <v>0.9230568892896261</v>
       </c>
       <c r="AB6">
-        <v>0.9529640171424021</v>
+        <v>0.9366333449005293</v>
       </c>
       <c r="AC6">
-        <v>0.9529640171424021</v>
+        <v>0.9366333449005293</v>
       </c>
       <c r="AD6">
-        <v>0.9652748089318607</v>
+        <v>0.9533904370914019</v>
       </c>
       <c r="AE6">
-        <v>0.9652748089318607</v>
+        <v>0.9575747206113137</v>
       </c>
       <c r="AF6">
-        <v>0.9787135470405959</v>
+        <v>0.9753266294381774</v>
       </c>
       <c r="AG6">
-        <v>0.9787135470405959</v>
+        <v>0.9753266294381774</v>
       </c>
       <c r="AH6">
-        <v>0.9787135470405959</v>
+        <v>0.9753266294381774</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -2408,97 +2408,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3031190035712913</v>
+        <v>0.2716031974330277</v>
       </c>
       <c r="E7">
-        <v>0.3915169793162887</v>
+        <v>0.3559673779829041</v>
       </c>
       <c r="F7">
-        <v>0.5559802443433948</v>
+        <v>0.5066612986998051</v>
       </c>
       <c r="G7">
-        <v>0.5559802443433948</v>
+        <v>0.5066612986998051</v>
       </c>
       <c r="H7">
-        <v>0.5559802443433948</v>
+        <v>0.5066612986998051</v>
       </c>
       <c r="I7">
-        <v>0.5559802443433948</v>
+        <v>0.5068778384844623</v>
       </c>
       <c r="J7">
-        <v>0.5682857818576833</v>
+        <v>0.5248886046957774</v>
       </c>
       <c r="K7">
-        <v>0.6399697400405516</v>
+        <v>0.5946779844067136</v>
       </c>
       <c r="L7">
-        <v>0.6399697400405516</v>
+        <v>0.5946779844067136</v>
       </c>
       <c r="M7">
-        <v>0.6614175953663863</v>
+        <v>0.6206609488530894</v>
       </c>
       <c r="N7">
-        <v>0.6881549957883765</v>
+        <v>0.6512564528052116</v>
       </c>
       <c r="O7">
-        <v>0.8057143114202553</v>
+        <v>0.7610496314680827</v>
       </c>
       <c r="P7">
-        <v>0.8057143114202553</v>
+        <v>0.7610496314680827</v>
       </c>
       <c r="Q7">
-        <v>0.8057143114202553</v>
+        <v>0.7613868270174482</v>
       </c>
       <c r="R7">
-        <v>0.8057143114202553</v>
+        <v>0.7613868270174482</v>
       </c>
       <c r="S7">
-        <v>0.8158805131151996</v>
+        <v>0.7775320696717458</v>
       </c>
       <c r="T7">
-        <v>0.8158805131151996</v>
+        <v>0.7775320696717458</v>
       </c>
       <c r="U7">
-        <v>0.8158805131151996</v>
+        <v>0.7775320696717458</v>
       </c>
       <c r="V7">
-        <v>0.8158805131151996</v>
+        <v>0.7802016184702797</v>
       </c>
       <c r="W7">
-        <v>0.8158805131151996</v>
+        <v>0.7820411775834019</v>
       </c>
       <c r="X7">
-        <v>0.8158805131151996</v>
+        <v>0.7831076066403873</v>
       </c>
       <c r="Y7">
-        <v>0.8162996885079766</v>
+        <v>0.7907533388330061</v>
       </c>
       <c r="Z7">
-        <v>0.8443510358487352</v>
+        <v>0.822494618454132</v>
       </c>
       <c r="AA7">
-        <v>0.8818850140528688</v>
+        <v>0.8625048529060839</v>
       </c>
       <c r="AB7">
-        <v>0.8836266513828699</v>
+        <v>0.8713037859542404</v>
       </c>
       <c r="AC7">
-        <v>0.8836266513828699</v>
+        <v>0.8713037859542404</v>
       </c>
       <c r="AD7">
-        <v>0.9095779512210564</v>
+        <v>0.9012138018478678</v>
       </c>
       <c r="AE7">
-        <v>0.9095779512210564</v>
+        <v>0.9065905994682898</v>
       </c>
       <c r="AF7">
-        <v>0.9858418003401461</v>
+        <v>0.9803736927200529</v>
       </c>
       <c r="AG7">
-        <v>0.9858418003401461</v>
+        <v>0.9803736927200529</v>
       </c>
       <c r="AH7">
-        <v>0.9858418003401461</v>
+        <v>0.9803736927200529</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2515,100 +2515,100 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2427927591715783</v>
+        <v>0.2106756628772977</v>
       </c>
       <c r="E8">
-        <v>0.2737776559202744</v>
+        <v>0.2453725398426291</v>
       </c>
       <c r="F8">
-        <v>0.5471327649981907</v>
+        <v>0.481440674791601</v>
       </c>
       <c r="G8">
-        <v>0.5471327649981907</v>
+        <v>0.4852409921010104</v>
       </c>
       <c r="H8">
-        <v>0.5471327649981907</v>
+        <v>0.4852409921010104</v>
       </c>
       <c r="I8">
-        <v>0.5471327649981907</v>
+        <v>0.4882769126376548</v>
       </c>
       <c r="J8">
-        <v>0.5651268640314775</v>
+        <v>0.5121804942841308</v>
       </c>
       <c r="K8">
-        <v>0.6314818722977604</v>
+        <v>0.5762643317297516</v>
       </c>
       <c r="L8">
-        <v>0.6314818722977604</v>
+        <v>0.5806562819872461</v>
       </c>
       <c r="M8">
-        <v>0.6815406518939877</v>
+        <v>0.6312005345303265</v>
       </c>
       <c r="N8">
-        <v>0.6951685076610459</v>
+        <v>0.6514764595818215</v>
       </c>
       <c r="O8">
-        <v>0.8200528914818127</v>
+        <v>0.7641889377796888</v>
       </c>
       <c r="P8">
-        <v>0.8200528914818127</v>
+        <v>0.7641889377796888</v>
       </c>
       <c r="Q8">
-        <v>0.8200528914818127</v>
+        <v>0.7670220073578649</v>
       </c>
       <c r="R8">
-        <v>0.8200528914818127</v>
+        <v>0.7670220073578649</v>
       </c>
       <c r="S8">
-        <v>0.8299763025335508</v>
+        <v>0.7842201255894294</v>
       </c>
       <c r="T8">
-        <v>0.8299763025335508</v>
+        <v>0.7842201255894294</v>
       </c>
       <c r="U8">
-        <v>0.8299763025335508</v>
+        <v>0.7842201255894294</v>
       </c>
       <c r="V8">
-        <v>0.8299763025335508</v>
+        <v>0.7885641294432191</v>
       </c>
       <c r="W8">
-        <v>0.8299763025335508</v>
+        <v>0.7946408361169706</v>
       </c>
       <c r="X8">
-        <v>0.8299763025335508</v>
+        <v>0.7985805882981436</v>
       </c>
       <c r="Y8">
-        <v>0.8299763025335508</v>
+        <v>0.8045408022678442</v>
       </c>
       <c r="Z8">
-        <v>0.8486981246885652</v>
+        <v>0.82904900656608</v>
       </c>
       <c r="AA8">
-        <v>0.8844531965131888</v>
+        <v>0.8677091434824197</v>
       </c>
       <c r="AB8">
-        <v>0.8844531965131888</v>
+        <v>0.8726997746976183</v>
       </c>
       <c r="AC8">
-        <v>0.8844531965131888</v>
+        <v>0.8732798080159101</v>
       </c>
       <c r="AD8">
-        <v>0.9176981161957209</v>
+        <v>0.9098544060794114</v>
       </c>
       <c r="AE8">
-        <v>0.9176981161957209</v>
+        <v>0.9132683110204749</v>
       </c>
       <c r="AF8">
-        <v>0.9874630672503031</v>
+        <v>0.9801852708301564</v>
       </c>
       <c r="AG8">
-        <v>0.9874630672503031</v>
+        <v>0.9806304591871379</v>
       </c>
       <c r="AH8">
-        <v>0.9874630672503031</v>
+        <v>0.9806304591871379</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -2622,100 +2622,100 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2237373938088804</v>
+        <v>0.198631655127862</v>
       </c>
       <c r="E9">
-        <v>0.2237373938088804</v>
+        <v>0.2054655251198885</v>
       </c>
       <c r="F9">
-        <v>0.5449378349800034</v>
+        <v>0.487065488597728</v>
       </c>
       <c r="G9">
-        <v>0.5449378349800034</v>
+        <v>0.487065488597728</v>
       </c>
       <c r="H9">
-        <v>0.5449378349800034</v>
+        <v>0.487065488597728</v>
       </c>
       <c r="I9">
-        <v>0.5449378349800034</v>
+        <v>0.487065488597728</v>
       </c>
       <c r="J9">
-        <v>0.5627329221391913</v>
+        <v>0.5103826500497364</v>
       </c>
       <c r="K9">
-        <v>0.6141939748338283</v>
+        <v>0.5623589626881763</v>
       </c>
       <c r="L9">
-        <v>0.6141939748338283</v>
+        <v>0.5703270358867489</v>
       </c>
       <c r="M9">
-        <v>0.658148957041175</v>
+        <v>0.6159135835061297</v>
       </c>
       <c r="N9">
-        <v>0.671663533995783</v>
+        <v>0.635586833751167</v>
       </c>
       <c r="O9">
-        <v>0.8036077156656402</v>
+        <v>0.7560767958445486</v>
       </c>
       <c r="P9">
-        <v>0.8036077156656402</v>
+        <v>0.7560767958445486</v>
       </c>
       <c r="Q9">
-        <v>0.8036077156656402</v>
+        <v>0.7612591998704145</v>
       </c>
       <c r="R9">
-        <v>0.8036077156656402</v>
+        <v>0.7612591998704145</v>
       </c>
       <c r="S9">
-        <v>0.8205730881130067</v>
+        <v>0.7838700420771703</v>
       </c>
       <c r="T9">
-        <v>0.8205730881130067</v>
+        <v>0.7838700420771703</v>
       </c>
       <c r="U9">
-        <v>0.8205730881130067</v>
+        <v>0.7838700420771703</v>
       </c>
       <c r="V9">
-        <v>0.8205730881130067</v>
+        <v>0.7891892962998132</v>
       </c>
       <c r="W9">
-        <v>0.8208257266530847</v>
+        <v>0.7975729283205655</v>
       </c>
       <c r="X9">
-        <v>0.8208257266530847</v>
+        <v>0.7991330748467356</v>
       </c>
       <c r="Y9">
-        <v>0.8208257266530847</v>
+        <v>0.803616217644757</v>
       </c>
       <c r="Z9">
-        <v>0.847995921027574</v>
+        <v>0.8349142170379619</v>
       </c>
       <c r="AA9">
-        <v>0.881749014167399</v>
+        <v>0.8718161041545732</v>
       </c>
       <c r="AB9">
-        <v>0.881749014167399</v>
+        <v>0.8734389892861376</v>
       </c>
       <c r="AC9">
-        <v>0.881749014167399</v>
+        <v>0.8734389892861376</v>
       </c>
       <c r="AD9">
-        <v>0.9230082085135509</v>
+        <v>0.9167306675722988</v>
       </c>
       <c r="AE9">
-        <v>0.9230082085135509</v>
+        <v>0.9181213231346159</v>
       </c>
       <c r="AF9">
-        <v>0.9847698683250609</v>
+        <v>0.9788663329418227</v>
       </c>
       <c r="AG9">
-        <v>0.9847698683250609</v>
+        <v>0.9788663329418227</v>
       </c>
       <c r="AH9">
-        <v>0.9847698683250609</v>
+        <v>0.9788663329418227</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2729,97 +2729,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2162353177400979</v>
+        <v>0.1930670815396631</v>
       </c>
       <c r="E10">
-        <v>0.2162353177400979</v>
+        <v>0.1946883074622109</v>
       </c>
       <c r="F10">
-        <v>0.55685847619434</v>
+        <v>0.4941652378103317</v>
       </c>
       <c r="G10">
-        <v>0.55685847619434</v>
+        <v>0.4941652378103317</v>
       </c>
       <c r="H10">
-        <v>0.55685847619434</v>
+        <v>0.4941652378103317</v>
       </c>
       <c r="I10">
-        <v>0.55685847619434</v>
+        <v>0.4941652378103317</v>
       </c>
       <c r="J10">
-        <v>0.5802993800013047</v>
+        <v>0.5223028188461156</v>
       </c>
       <c r="K10">
-        <v>0.6123235626424509</v>
+        <v>0.5577831224324508</v>
       </c>
       <c r="L10">
-        <v>0.6292327674689995</v>
+        <v>0.5803330423513761</v>
       </c>
       <c r="M10">
-        <v>0.6745432515713518</v>
+        <v>0.6271793550395137</v>
       </c>
       <c r="N10">
-        <v>0.6745432515713518</v>
+        <v>0.6339293432970402</v>
       </c>
       <c r="O10">
-        <v>0.8091738602017653</v>
+        <v>0.7571861868860718</v>
       </c>
       <c r="P10">
-        <v>0.8091738602017653</v>
+        <v>0.7607533912710737</v>
       </c>
       <c r="Q10">
-        <v>0.8091738602017653</v>
+        <v>0.7607533912710737</v>
       </c>
       <c r="R10">
-        <v>0.8091738602017653</v>
+        <v>0.7607533912710737</v>
       </c>
       <c r="S10">
-        <v>0.8126600801745716</v>
+        <v>0.7718203737851493</v>
       </c>
       <c r="T10">
-        <v>0.8126600801745716</v>
+        <v>0.7718203737851493</v>
       </c>
       <c r="U10">
-        <v>0.8126600801745716</v>
+        <v>0.7718203737851493</v>
       </c>
       <c r="V10">
-        <v>0.8126600801745716</v>
+        <v>0.7746909081025211</v>
       </c>
       <c r="W10">
-        <v>0.815771943353908</v>
+        <v>0.7854376402644334</v>
       </c>
       <c r="X10">
-        <v>0.815771943353908</v>
+        <v>0.7854376402644334</v>
       </c>
       <c r="Y10">
-        <v>0.8160009968463287</v>
+        <v>0.7937182202593246</v>
       </c>
       <c r="Z10">
-        <v>0.8331006553113276</v>
+        <v>0.8164310672196406</v>
       </c>
       <c r="AA10">
-        <v>0.8790675508819676</v>
+        <v>0.8638389190799001</v>
       </c>
       <c r="AB10">
-        <v>0.8790675508819676</v>
+        <v>0.8638389190799001</v>
       </c>
       <c r="AC10">
-        <v>0.8790675508819676</v>
+        <v>0.8684768083889839</v>
       </c>
       <c r="AD10">
-        <v>0.9196858718128172</v>
+        <v>0.9113091244453154</v>
       </c>
       <c r="AE10">
-        <v>0.9196858718128172</v>
+        <v>0.9113091244453154</v>
       </c>
       <c r="AF10">
-        <v>0.9892930830787197</v>
+        <v>0.9789405158772447</v>
       </c>
       <c r="AG10">
-        <v>0.9892930830787197</v>
+        <v>0.9827559404809093</v>
       </c>
       <c r="AH10">
-        <v>0.9892930830787197</v>
+        <v>0.9827559404809093</v>
       </c>
       <c r="AI10">
         <v>0.9999999999999999</v>
@@ -2836,97 +2836,97 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2984912183988795</v>
+        <v>0.2587224494303021</v>
       </c>
       <c r="E11">
-        <v>0.3934438247679991</v>
+        <v>0.346718569319434</v>
       </c>
       <c r="F11">
-        <v>0.5867517561166677</v>
+        <v>0.5172142378550517</v>
       </c>
       <c r="G11">
-        <v>0.5867517561166677</v>
+        <v>0.5212048369930996</v>
       </c>
       <c r="H11">
-        <v>0.5867517561166677</v>
+        <v>0.5212048369930996</v>
       </c>
       <c r="I11">
-        <v>0.5867517561166677</v>
+        <v>0.5266675914114524</v>
       </c>
       <c r="J11">
-        <v>0.5961828373006587</v>
+        <v>0.542929036753993</v>
       </c>
       <c r="K11">
-        <v>0.6619175016959141</v>
+        <v>0.6064174136640416</v>
       </c>
       <c r="L11">
-        <v>0.6619175016959141</v>
+        <v>0.6064174136640416</v>
       </c>
       <c r="M11">
-        <v>0.6832163555272079</v>
+        <v>0.6326334383549314</v>
       </c>
       <c r="N11">
-        <v>0.7085144646728001</v>
+        <v>0.662204001891789</v>
       </c>
       <c r="O11">
-        <v>0.8044525178998342</v>
+        <v>0.7510267056085881</v>
       </c>
       <c r="P11">
-        <v>0.8044525178998342</v>
+        <v>0.7510267056085881</v>
       </c>
       <c r="Q11">
-        <v>0.8044525178998342</v>
+        <v>0.7530043019963434</v>
       </c>
       <c r="R11">
-        <v>0.8044525178998342</v>
+        <v>0.7530043019963434</v>
       </c>
       <c r="S11">
-        <v>0.8328965076118761</v>
+        <v>0.785213601431657</v>
       </c>
       <c r="T11">
-        <v>0.8328965076118761</v>
+        <v>0.785213601431657</v>
       </c>
       <c r="U11">
-        <v>0.8328965076118761</v>
+        <v>0.785213601431657</v>
       </c>
       <c r="V11">
-        <v>0.8336431867307212</v>
+        <v>0.7941906496072103</v>
       </c>
       <c r="W11">
-        <v>0.8336431867307212</v>
+        <v>0.796971237994706</v>
       </c>
       <c r="X11">
-        <v>0.8336431867307212</v>
+        <v>0.8016730959773367</v>
       </c>
       <c r="Y11">
-        <v>0.8336431867307212</v>
+        <v>0.8020062399706539</v>
       </c>
       <c r="Z11">
-        <v>0.8631427242229128</v>
+        <v>0.8351009232472111</v>
       </c>
       <c r="AA11">
-        <v>0.8824343360056761</v>
+        <v>0.8596332916331428</v>
       </c>
       <c r="AB11">
-        <v>0.8881138817169231</v>
+        <v>0.8727479832712245</v>
       </c>
       <c r="AC11">
-        <v>0.8881138817169231</v>
+        <v>0.8727479832712245</v>
       </c>
       <c r="AD11">
-        <v>0.9098783392487706</v>
+        <v>0.8993545520953558</v>
       </c>
       <c r="AE11">
-        <v>0.914577242684753</v>
+        <v>0.9116466899458331</v>
       </c>
       <c r="AF11">
-        <v>0.9776649848002651</v>
+        <v>0.9729148526130172</v>
       </c>
       <c r="AG11">
-        <v>0.9776649848002651</v>
+        <v>0.9729148526130172</v>
       </c>
       <c r="AH11">
-        <v>0.9776649848002651</v>
+        <v>0.9729148526130172</v>
       </c>
       <c r="AI11">
         <v>0.9999999999999996</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6762675483303523</v>
+        <v>0.5980591220809204</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.670225842304407</v>
+        <v>0.6290518236768097</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6218224851056837</v>
+        <v>0.5555504302500712</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6629948555321605</v>
+        <v>0.5749898625861667</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6544589451857052</v>
+        <v>0.5949121821919612</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5559802443433948</v>
+        <v>0.5066612986998051</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3243,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5471327649981907</v>
+        <v>0.5121804942841308</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>62</v>
@@ -3284,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5449378349800034</v>
+        <v>0.5103826500497364</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>62</v>
@@ -3325,16 +3325,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.55685847619434</v>
+        <v>0.5223028188461156</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>62</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5867517561166677</v>
+        <v>0.5172142378550517</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3461,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7022104516239559</v>
+        <v>0.7602201584958009</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -3502,16 +3502,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7125403915177029</v>
+        <v>0.7843959956997545</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -3543,16 +3543,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7122132441954077</v>
+        <v>0.7479742301482318</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -3584,16 +3584,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7032337759075625</v>
+        <v>0.7726435708848217</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -3625,16 +3625,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7192240652392348</v>
+        <v>0.7810296929974272</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8057143114202553</v>
+        <v>0.7610496314680827</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8200528914818127</v>
+        <v>0.7641889377796888</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8036077156656402</v>
+        <v>0.7560767958445486</v>
       </c>
       <c r="G9">
         <v>13</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8091738602017653</v>
+        <v>0.7571861868860718</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -3830,16 +3830,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.7510267056085881</v>
+      </c>
+      <c r="G11">
         <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7085144646728001</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
       </c>
       <c r="H11">
         <v>62</v>
@@ -3925,16 +3925,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8268511476592505</v>
+        <v>0.8117131674974862</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -3966,16 +3966,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8175328631617123</v>
+        <v>0.8008015855404608</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -4007,16 +4007,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8006293241612301</v>
+        <v>0.8145506233807748</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -4048,16 +4048,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8353616420280874</v>
+        <v>0.800631961638967</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -4089,16 +4089,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8298903807505207</v>
+        <v>0.8032478848783707</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -4130,16 +4130,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8057143114202553</v>
+        <v>0.822494618454132</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>62</v>
@@ -4171,16 +4171,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8200528914818127</v>
+        <v>0.8045408022678442</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>62</v>
@@ -4212,16 +4212,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8036077156656402</v>
+        <v>0.803616217644757</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>62</v>
@@ -4253,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8091738602017653</v>
+        <v>0.8164310672196406</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>62</v>
@@ -4294,16 +4294,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8044525178998342</v>
+        <v>0.8016730959773367</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>62</v>
@@ -4389,16 +4389,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9138538761796406</v>
+        <v>0.921837509774139</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9184911645043582</v>
+        <v>0.9058243583408663</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9395870380015012</v>
+        <v>0.9210980405969668</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -4512,16 +4512,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9085911839119738</v>
+      </c>
+      <c r="G5">
         <v>25</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9359009664931618</v>
-      </c>
-      <c r="G5">
-        <v>24</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9406260599041942</v>
+        <v>0.9139529702712496</v>
       </c>
       <c r="G6">
         <v>24</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9095779512210564</v>
+        <v>0.9012138018478678</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9176981161957209</v>
+        <v>0.9098544060794114</v>
       </c>
       <c r="G8">
         <v>28</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9230082085135509</v>
+        <v>0.9167306675722988</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9196858718128172</v>
+        <v>0.9113091244453154</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4758,16 +4758,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.9116466899458331</v>
+      </c>
+      <c r="G11">
         <v>29</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9098783392487706</v>
-      </c>
-      <c r="G11">
-        <v>28</v>
       </c>
       <c r="H11">
         <v>62</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/62_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/62_11R22.xlsx
@@ -156,40 +156,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -199,9 +202,6 @@
   </si>
   <si>
     <t>100%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -683,25 +683,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2022278673415956</v>
+        <v>0.2818934829822949</v>
       </c>
       <c r="E2">
-        <v>0.007487481361975501</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3883437733773492</v>
+        <v>0.5856370774864473</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0299525876193413</v>
+        <v>0.0007379717655719204</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002564847284773193</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -710,73 +710,73 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.02094182787080249</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03318585403457712</v>
+        <v>0.006014704871686027</v>
       </c>
       <c r="O2">
-        <v>0.07551591960538651</v>
+        <v>0.07509792589205459</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.00232364718244743</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.00135184277276667</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04781751904647121</v>
+        <v>0.02989377366787797</v>
       </c>
       <c r="T2">
-        <v>0.009471119733151075</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.007896907875347242</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01482658198043799</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.006229848235954951</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.03344313585766082</v>
+        <v>0.00643459217422004</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.03825674859410075</v>
+        <v>0.01429047115984719</v>
       </c>
       <c r="AA2">
-        <v>0.00499322211208687</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.001947497312168793</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01211462069384904</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.004234256159415955</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.02519078860322073</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0004139410213846818</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.02926816432373484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -790,25 +790,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1924170420662693</v>
+        <v>0.2468046539492108</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4366347816105404</v>
+        <v>0.6136959096664825</v>
       </c>
       <c r="G3">
-        <v>0.005627242830179106</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02883431227065181</v>
+        <v>0.001052345945829499</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003362608765465273</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01877325983677277</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1017730962087946</v>
+        <v>0.1106291607975814</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.004187449504442063</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01221814033626422</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02667425976951174</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01595822761459552</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01536062667281516</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003790855352055211</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.04665057320827763</v>
+        <v>0.02781792964089589</v>
       </c>
       <c r="AA3">
-        <v>0.01887965745992456</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.02020081943296893</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02706307369575596</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0280320910704844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -897,22 +897,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1059537519554112</v>
+        <v>0.1300487359203457</v>
       </c>
       <c r="E4">
-        <v>0.04472007515110583</v>
+        <v>0.02654668957846234</v>
       </c>
       <c r="F4">
-        <v>0.4048766031435542</v>
+        <v>0.6353119899170045</v>
       </c>
       <c r="G4">
-        <v>0.05076488104615923</v>
+        <v>0.03676410281459709</v>
       </c>
       <c r="H4">
-        <v>0.04050439371027997</v>
+        <v>0.01942100843987199</v>
       </c>
       <c r="I4">
-        <v>0.01145499902702337</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -921,52 +921,52 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.005944314844051236</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.00564112218012854</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.07811408909051817</v>
+        <v>0.08299191643205438</v>
       </c>
       <c r="P4">
-        <v>0.004808440092791501</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01055309595032341</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.007928092538535551</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.04328676465089256</v>
+        <v>0.02412399380780838</v>
       </c>
       <c r="U4">
-        <v>0.001621783703160222</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03674005073055029</v>
+        <v>0.01305821558031713</v>
       </c>
       <c r="X4">
-        <v>0.01050535288958179</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.009891634391994001</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.04778859550090565</v>
+        <v>0.03173334750953831</v>
       </c>
       <c r="AA4">
-        <v>0.01996676605840529</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02221759987258778</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01709817182483996</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01961942164720035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1004,40 +1004,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2422211585652941</v>
+        <v>0.3781942494517186</v>
       </c>
       <c r="E5">
-        <v>0.107832746582354</v>
+        <v>0.1394486981032197</v>
       </c>
       <c r="F5">
-        <v>0.2249359574385186</v>
+        <v>0.3474865060362701</v>
       </c>
       <c r="G5">
-        <v>0.006679026200989892</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02519742967019477</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01509187018188523</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01700446836819745</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.02346579435141502</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.03037796710525244</v>
+        <v>0.001847667195997936</v>
       </c>
       <c r="O5">
-        <v>0.07983715242072018</v>
+        <v>0.08971357983798901</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1049,55 +1049,55 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02056652975216587</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.007421861001979395</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01269683711893177</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.003213977282477316</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.02838930981329043</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.05371646650454448</v>
+        <v>0.04330929937480453</v>
       </c>
       <c r="AA5">
-        <v>0.009942631553762757</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01922845299703653</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01363600956642647</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.009596973651371422</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.02247865974913569</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0003795896105270282</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02608913051352927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1111,40 +1111,40 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2378787880602266</v>
+        <v>0.3347476505655756</v>
       </c>
       <c r="E6">
-        <v>0.05340873513557569</v>
+        <v>0.03952843142533206</v>
       </c>
       <c r="F6">
-        <v>0.3036246589961589</v>
+        <v>0.4399649710556888</v>
       </c>
       <c r="G6">
-        <v>0.0008754550054492817</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.04185678710085436</v>
+        <v>0.02104111045214351</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0100937721874494</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001019892967449335</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.02286840804307506</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.01562042295579223</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.09378277254539627</v>
+        <v>0.1041415846645451</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1156,46 +1156,46 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0144181984972618</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.00779999338368171</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.009674435227779193</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.005760935157820869</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03178347320945011</v>
+        <v>0.004920142229785878</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.06348624179782869</v>
+        <v>0.05565610960692905</v>
       </c>
       <c r="AA6">
-        <v>0.009103919018376637</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0135764556109032</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01675709219087264</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.004184283519911789</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01775190882686376</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.02467337056182232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2716031974330277</v>
+        <v>0.4036279538718779</v>
       </c>
       <c r="E7">
-        <v>0.08436418054987638</v>
+        <v>0.09190177300557256</v>
       </c>
       <c r="F7">
-        <v>0.150693920716901</v>
+        <v>0.2023313027281331</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1233,37 +1233,37 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0002165397846571985</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01801076621131503</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0697893797109362</v>
+        <v>0.06763681435517988</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.02598296444637585</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.03059550395212213</v>
+        <v>0.002384617419814596</v>
       </c>
       <c r="O7">
-        <v>0.109793178662871</v>
+        <v>0.1342374175575154</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0003371955493655521</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.01614524265429765</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1272,37 +1272,37 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.002669548798533916</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.0018395591131222</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.00106642905698535</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.007645732192618827</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.03174127962112586</v>
+        <v>0.00429217001955381</v>
       </c>
       <c r="AA7">
-        <v>0.040010234451952</v>
+        <v>0.01805879704034204</v>
       </c>
       <c r="AB7">
-        <v>0.008798933048156521</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.02991001589362737</v>
+        <v>0.001243377853077379</v>
       </c>
       <c r="AE7">
-        <v>0.005376797620421927</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.07378309325176312</v>
+        <v>0.07428577614893329</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.01962630727994714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1325,52 +1325,52 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2106756628772977</v>
+        <v>0.3106002825337073</v>
       </c>
       <c r="E8">
-        <v>0.03469687696533146</v>
+        <v>0.008295966587466896</v>
       </c>
       <c r="F8">
-        <v>0.2360681349489719</v>
+        <v>0.354220619269361</v>
       </c>
       <c r="G8">
-        <v>0.003800317309409391</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.003035920536644409</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02390358164647598</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.06408383744562071</v>
+        <v>0.05877821613643915</v>
       </c>
       <c r="L8">
-        <v>0.004391950257494481</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.05054425254308053</v>
+        <v>0.03551930495037139</v>
       </c>
       <c r="N8">
-        <v>0.02027592505149497</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1127124781978672</v>
+        <v>0.1423146941375851</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.00283306957817605</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.01719811823156463</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1379,46 +1379,46 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.004344003853789682</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.006076706673751485</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.003939752181172994</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.005960213969700644</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.02450820429823583</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.03866013691633959</v>
+        <v>0.01510423374420247</v>
       </c>
       <c r="AB8">
-        <v>0.004990631215198611</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.0005800333182918083</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.03657459806350123</v>
+        <v>0.0115216007977404</v>
       </c>
       <c r="AE8">
-        <v>0.003413904941063519</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.06691695980968149</v>
+        <v>0.06364508184312631</v>
       </c>
       <c r="AG8">
-        <v>0.0004451883569815222</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.01936954081286194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.198631655127862</v>
+        <v>0.2796222235897948</v>
       </c>
       <c r="E9">
-        <v>0.006833869992026506</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2815999634778395</v>
+        <v>0.4168166117766975</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1450,34 +1450,34 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02331716145200837</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.05197631263843989</v>
+        <v>0.03711649595334107</v>
       </c>
       <c r="L9">
-        <v>0.007968073198572604</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.04558654761938071</v>
+        <v>0.02655053504752087</v>
       </c>
       <c r="N9">
-        <v>0.01967325024503735</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1204899620933816</v>
+        <v>0.1504090097620211</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.005182404025865934</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.02261084220675576</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.005319254222642862</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.008383632020752322</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.001560146526170076</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.004483142798021395</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.03129799939320484</v>
+        <v>0.002923337254114423</v>
       </c>
       <c r="AA9">
-        <v>0.0369018871166114</v>
+        <v>0.01218979046945309</v>
       </c>
       <c r="AB9">
-        <v>0.001622885131564411</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.04329167828616117</v>
+        <v>0.0227557946170921</v>
       </c>
       <c r="AE9">
-        <v>0.001390655562317052</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.06074500980720678</v>
+        <v>0.05161620152996473</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.02113366705817745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1930670815396631</v>
+        <v>0.2638522988577042</v>
       </c>
       <c r="E10">
-        <v>0.001621225922547748</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2994769303481208</v>
+        <v>0.4355234078614963</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02813758103578399</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.03548030358633512</v>
+        <v>0.009617402008269544</v>
       </c>
       <c r="L10">
-        <v>0.02254991991892535</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0468463126881376</v>
+        <v>0.02795419516513136</v>
       </c>
       <c r="N10">
-        <v>0.006749988257526516</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1232568435890316</v>
+        <v>0.1512273764186545</v>
       </c>
       <c r="P10">
-        <v>0.00356720438500195</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.0110669825140757</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1593,46 +1593,46 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.002870534317371753</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.01074673216191237</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.008280579994891233</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.02271284696031603</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.04740785186025942</v>
+        <v>0.0288601268388127</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.004637889309083848</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.04283231605633148</v>
+        <v>0.02147841062981049</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.06763139143192931</v>
+        <v>0.06148678222012081</v>
       </c>
       <c r="AG10">
-        <v>0.003815424603664537</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01724405951909062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,52 +1646,52 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2587224494303021</v>
+        <v>0.4088892372682069</v>
       </c>
       <c r="E11">
-        <v>0.08799611988913193</v>
+        <v>0.1044330610387012</v>
       </c>
       <c r="F11">
-        <v>0.1704956685356178</v>
+        <v>0.2515544639826575</v>
       </c>
       <c r="G11">
-        <v>0.003990599138047928</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.005462754418352743</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01626144534254061</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.06348837691004856</v>
+        <v>0.06072841550757407</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.02621602469088981</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.02957056353685756</v>
+        <v>0.000242796251186755</v>
       </c>
       <c r="O11">
-        <v>0.08882270371679911</v>
+        <v>0.1059071075561952</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.001977596387755333</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03220929943531362</v>
+        <v>0.004948452630507726</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1700,37 +1700,37 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.008977048175553386</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.002780588387495766</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.004701857982630716</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.0003331439933172122</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.0330946832765572</v>
+        <v>0.006527357182165711</v>
       </c>
       <c r="AA11">
-        <v>0.02453236838593181</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01311469163808167</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.02660656882413126</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.01229213785047731</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.06126816266718416</v>
+        <v>0.05676910858280488</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.02708514738698229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1873,100 +1873,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2022278673415956</v>
+        <v>0.2818934829822949</v>
       </c>
       <c r="E2">
-        <v>0.2097153487035711</v>
+        <v>0.2818934829822949</v>
       </c>
       <c r="F2">
-        <v>0.5980591220809204</v>
+        <v>0.8675305604687422</v>
       </c>
       <c r="G2">
-        <v>0.5980591220809204</v>
+        <v>0.8675305604687422</v>
       </c>
       <c r="H2">
-        <v>0.6280117097002617</v>
+        <v>0.8682685322343141</v>
       </c>
       <c r="I2">
-        <v>0.6280117097002617</v>
+        <v>0.8682685322343141</v>
       </c>
       <c r="J2">
-        <v>0.6305765569850349</v>
+        <v>0.8682685322343141</v>
       </c>
       <c r="K2">
-        <v>0.6305765569850349</v>
+        <v>0.8682685322343141</v>
       </c>
       <c r="L2">
-        <v>0.6305765569850349</v>
+        <v>0.8682685322343141</v>
       </c>
       <c r="M2">
-        <v>0.6515183848558374</v>
+        <v>0.8682685322343141</v>
       </c>
       <c r="N2">
-        <v>0.6847042388904144</v>
+        <v>0.8742832371060001</v>
       </c>
       <c r="O2">
-        <v>0.7602201584958009</v>
+        <v>0.9493811629980546</v>
       </c>
       <c r="P2">
-        <v>0.7602201584958009</v>
+        <v>0.9493811629980546</v>
       </c>
       <c r="Q2">
-        <v>0.7625438056782483</v>
+        <v>0.9493811629980546</v>
       </c>
       <c r="R2">
-        <v>0.763895648451015</v>
+        <v>0.9493811629980546</v>
       </c>
       <c r="S2">
-        <v>0.8117131674974862</v>
+        <v>0.9792749366659326</v>
       </c>
       <c r="T2">
-        <v>0.8211842872306373</v>
+        <v>0.9792749366659326</v>
       </c>
       <c r="U2">
-        <v>0.8290811951059845</v>
+        <v>0.9792749366659326</v>
       </c>
       <c r="V2">
-        <v>0.8439077770864225</v>
+        <v>0.9792749366659326</v>
       </c>
       <c r="W2">
-        <v>0.8501376253223775</v>
+        <v>0.9792749366659326</v>
       </c>
       <c r="X2">
-        <v>0.8835807611800383</v>
+        <v>0.9857095288401526</v>
       </c>
       <c r="Y2">
-        <v>0.8835807611800383</v>
+        <v>0.9857095288401526</v>
       </c>
       <c r="Z2">
-        <v>0.921837509774139</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA2">
-        <v>0.9268307318862259</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB2">
-        <v>0.9287782291983947</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC2">
-        <v>0.9287782291983947</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD2">
-        <v>0.9408928498922438</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE2">
-        <v>0.9451271060516597</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF2">
-        <v>0.9703178946548805</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.9703178946548805</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.9707318356762652</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1980,97 +1980,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1924170420662693</v>
+        <v>0.2468046539492108</v>
       </c>
       <c r="E3">
-        <v>0.1924170420662693</v>
+        <v>0.2468046539492108</v>
       </c>
       <c r="F3">
-        <v>0.6290518236768097</v>
+        <v>0.8605005636156933</v>
       </c>
       <c r="G3">
-        <v>0.6346790665069888</v>
+        <v>0.8605005636156933</v>
       </c>
       <c r="H3">
-        <v>0.6635133787776406</v>
+        <v>0.8615529095615228</v>
       </c>
       <c r="I3">
-        <v>0.6635133787776406</v>
+        <v>0.8615529095615228</v>
       </c>
       <c r="J3">
-        <v>0.6638496396541871</v>
+        <v>0.8615529095615228</v>
       </c>
       <c r="K3">
-        <v>0.6638496396541871</v>
+        <v>0.8615529095615228</v>
       </c>
       <c r="L3">
-        <v>0.6638496396541871</v>
+        <v>0.8615529095615228</v>
       </c>
       <c r="M3">
-        <v>0.6826228994909599</v>
+        <v>0.8615529095615228</v>
       </c>
       <c r="N3">
-        <v>0.6826228994909599</v>
+        <v>0.8615529095615228</v>
       </c>
       <c r="O3">
-        <v>0.7843959956997545</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="P3">
-        <v>0.7843959956997545</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="Q3">
-        <v>0.7843959956997545</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="R3">
-        <v>0.7885834452041965</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="S3">
-        <v>0.8008015855404608</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="T3">
-        <v>0.8274758453099725</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="U3">
-        <v>0.8274758453099725</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="V3">
-        <v>0.8274758453099725</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="W3">
-        <v>0.8434340729245681</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="X3">
-        <v>0.8587946995973832</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="Y3">
-        <v>0.8591737851325887</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="Z3">
-        <v>0.9058243583408663</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.9247040158007909</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.9247040158007909</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9247040158007909</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9449048352337598</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9449048352337598</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9719679089295158</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9719679089295158</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9719679089295158</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -2087,100 +2087,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1059537519554112</v>
+        <v>0.1300487359203457</v>
       </c>
       <c r="E4">
-        <v>0.150673827106517</v>
+        <v>0.156595425498808</v>
       </c>
       <c r="F4">
-        <v>0.5555504302500712</v>
+        <v>0.7919074154158126</v>
       </c>
       <c r="G4">
-        <v>0.6063153112962305</v>
+        <v>0.8286715182304096</v>
       </c>
       <c r="H4">
-        <v>0.6468197050065104</v>
+        <v>0.8480925266702817</v>
       </c>
       <c r="I4">
-        <v>0.6582747040335338</v>
+        <v>0.8480925266702817</v>
       </c>
       <c r="J4">
-        <v>0.6582747040335338</v>
+        <v>0.8480925266702817</v>
       </c>
       <c r="K4">
-        <v>0.6582747040335338</v>
+        <v>0.8480925266702817</v>
       </c>
       <c r="L4">
-        <v>0.6642190188775851</v>
+        <v>0.8480925266702817</v>
       </c>
       <c r="M4">
-        <v>0.6698601410577136</v>
+        <v>0.8480925266702817</v>
       </c>
       <c r="N4">
-        <v>0.6698601410577136</v>
+        <v>0.8480925266702817</v>
       </c>
       <c r="O4">
-        <v>0.7479742301482318</v>
+        <v>0.9310844431023361</v>
       </c>
       <c r="P4">
-        <v>0.7527826702410233</v>
+        <v>0.9310844431023361</v>
       </c>
       <c r="Q4">
-        <v>0.7527826702410233</v>
+        <v>0.9310844431023361</v>
       </c>
       <c r="R4">
-        <v>0.7633357661913467</v>
+        <v>0.9310844431023361</v>
       </c>
       <c r="S4">
-        <v>0.7712638587298822</v>
+        <v>0.9310844431023361</v>
       </c>
       <c r="T4">
-        <v>0.8145506233807748</v>
+        <v>0.9552084369101445</v>
       </c>
       <c r="U4">
-        <v>0.816172407083935</v>
+        <v>0.9552084369101445</v>
       </c>
       <c r="V4">
-        <v>0.816172407083935</v>
+        <v>0.9552084369101445</v>
       </c>
       <c r="W4">
-        <v>0.8529124578144853</v>
+        <v>0.9682666524904616</v>
       </c>
       <c r="X4">
-        <v>0.8634178107040671</v>
+        <v>0.9682666524904616</v>
       </c>
       <c r="Y4">
-        <v>0.8733094450960611</v>
+        <v>0.9682666524904616</v>
       </c>
       <c r="Z4">
-        <v>0.9210980405969668</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.9410648066553721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.9410648066553721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.9410648066553721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.9632824065279598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.9632824065279598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.9803805783527998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9803805783527998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.9803805783527998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -2194,100 +2194,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2422211585652941</v>
+        <v>0.3781942494517186</v>
       </c>
       <c r="E5">
-        <v>0.3500539051476481</v>
+        <v>0.5176429475549383</v>
       </c>
       <c r="F5">
-        <v>0.5749898625861667</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="G5">
-        <v>0.5816688887871566</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="H5">
-        <v>0.6068663184573514</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="I5">
-        <v>0.6068663184573514</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="J5">
-        <v>0.6219581886392366</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="K5">
-        <v>0.638962657007434</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="L5">
-        <v>0.638962657007434</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="M5">
-        <v>0.6624284513588491</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="N5">
-        <v>0.6928064184641015</v>
+        <v>0.8669771207872063</v>
       </c>
       <c r="O5">
-        <v>0.7726435708848217</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="P5">
-        <v>0.7726435708848217</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="Q5">
-        <v>0.7726435708848217</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="R5">
-        <v>0.7726435708848217</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="S5">
-        <v>0.7932101006369876</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="T5">
-        <v>0.800631961638967</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="U5">
-        <v>0.800631961638967</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="V5">
-        <v>0.8133287987578988</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="W5">
-        <v>0.8165427760403761</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="X5">
-        <v>0.8449320858536665</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="Y5">
-        <v>0.8449320858536665</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="Z5">
-        <v>0.8986485523582111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.9085911839119738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.9278196369090104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.9278196369090104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.9414556464754369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.9510526201268084</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.973531279875944</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.973531279875944</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.973910869486471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -2301,100 +2301,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2378787880602266</v>
+        <v>0.3347476505655756</v>
       </c>
       <c r="E6">
-        <v>0.2912875231958023</v>
+        <v>0.3742760819909077</v>
       </c>
       <c r="F6">
-        <v>0.5949121821919612</v>
+        <v>0.8142410530465964</v>
       </c>
       <c r="G6">
-        <v>0.5957876371974105</v>
+        <v>0.8142410530465964</v>
       </c>
       <c r="H6">
-        <v>0.6376444242982648</v>
+        <v>0.83528216349874</v>
       </c>
       <c r="I6">
-        <v>0.6376444242982648</v>
+        <v>0.83528216349874</v>
       </c>
       <c r="J6">
-        <v>0.6477381964857143</v>
+        <v>0.83528216349874</v>
       </c>
       <c r="K6">
-        <v>0.6487580894531636</v>
+        <v>0.83528216349874</v>
       </c>
       <c r="L6">
-        <v>0.6487580894531636</v>
+        <v>0.83528216349874</v>
       </c>
       <c r="M6">
-        <v>0.6716264974962387</v>
+        <v>0.83528216349874</v>
       </c>
       <c r="N6">
-        <v>0.687246920452031</v>
+        <v>0.83528216349874</v>
       </c>
       <c r="O6">
-        <v>0.7810296929974272</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="P6">
-        <v>0.7810296929974272</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="Q6">
-        <v>0.7810296929974272</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="R6">
-        <v>0.7810296929974272</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="S6">
-        <v>0.795447891494689</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="T6">
-        <v>0.8032478848783707</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="U6">
-        <v>0.8032478848783707</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="V6">
-        <v>0.81292232010615</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="W6">
-        <v>0.8186832552639708</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="X6">
-        <v>0.8504667284734209</v>
+        <v>0.944343890393071</v>
       </c>
       <c r="Y6">
-        <v>0.8504667284734209</v>
+        <v>0.944343890393071</v>
       </c>
       <c r="Z6">
-        <v>0.9139529702712496</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9230568892896261</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9366333449005293</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9366333449005293</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9533904370914019</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9575747206113137</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9753266294381774</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9753266294381774</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9753266294381774</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -2408,100 +2408,100 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2716031974330277</v>
+        <v>0.4036279538718779</v>
       </c>
       <c r="E7">
-        <v>0.3559673779829041</v>
+        <v>0.4955297268774504</v>
       </c>
       <c r="F7">
-        <v>0.5066612986998051</v>
+        <v>0.6978610296055835</v>
       </c>
       <c r="G7">
-        <v>0.5066612986998051</v>
+        <v>0.6978610296055835</v>
       </c>
       <c r="H7">
-        <v>0.5066612986998051</v>
+        <v>0.6978610296055835</v>
       </c>
       <c r="I7">
-        <v>0.5068778384844623</v>
+        <v>0.6978610296055835</v>
       </c>
       <c r="J7">
-        <v>0.5248886046957774</v>
+        <v>0.6978610296055835</v>
       </c>
       <c r="K7">
-        <v>0.5946779844067136</v>
+        <v>0.7654978439607634</v>
       </c>
       <c r="L7">
-        <v>0.5946779844067136</v>
+        <v>0.7654978439607634</v>
       </c>
       <c r="M7">
-        <v>0.6206609488530894</v>
+        <v>0.7654978439607634</v>
       </c>
       <c r="N7">
-        <v>0.6512564528052116</v>
+        <v>0.7678824613805779</v>
       </c>
       <c r="O7">
-        <v>0.7610496314680827</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="P7">
-        <v>0.7610496314680827</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="Q7">
-        <v>0.7613868270174482</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="R7">
-        <v>0.7613868270174482</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="S7">
-        <v>0.7775320696717458</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="T7">
-        <v>0.7775320696717458</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="U7">
-        <v>0.7775320696717458</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="V7">
-        <v>0.7802016184702797</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="W7">
-        <v>0.7820411775834019</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="X7">
-        <v>0.7831076066403873</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="Y7">
-        <v>0.7907533388330061</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="Z7">
-        <v>0.822494618454132</v>
+        <v>0.9064120489576472</v>
       </c>
       <c r="AA7">
-        <v>0.8625048529060839</v>
+        <v>0.9244708459979892</v>
       </c>
       <c r="AB7">
-        <v>0.8713037859542404</v>
+        <v>0.9244708459979892</v>
       </c>
       <c r="AC7">
-        <v>0.8713037859542404</v>
+        <v>0.9244708459979892</v>
       </c>
       <c r="AD7">
-        <v>0.9012138018478678</v>
+        <v>0.9257142238510666</v>
       </c>
       <c r="AE7">
-        <v>0.9065905994682898</v>
+        <v>0.9257142238510666</v>
       </c>
       <c r="AF7">
-        <v>0.9803736927200529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>0.9803736927200529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.9803736927200529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -2515,100 +2515,100 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2106756628772977</v>
+        <v>0.3106002825337073</v>
       </c>
       <c r="E8">
-        <v>0.2453725398426291</v>
+        <v>0.3188962491211741</v>
       </c>
       <c r="F8">
-        <v>0.481440674791601</v>
+        <v>0.6731168683905351</v>
       </c>
       <c r="G8">
-        <v>0.4852409921010104</v>
+        <v>0.6731168683905351</v>
       </c>
       <c r="H8">
-        <v>0.4852409921010104</v>
+        <v>0.6731168683905351</v>
       </c>
       <c r="I8">
-        <v>0.4882769126376548</v>
+        <v>0.6731168683905351</v>
       </c>
       <c r="J8">
-        <v>0.5121804942841308</v>
+        <v>0.6731168683905351</v>
       </c>
       <c r="K8">
-        <v>0.5762643317297516</v>
+        <v>0.7318950845269743</v>
       </c>
       <c r="L8">
-        <v>0.5806562819872461</v>
+        <v>0.7318950845269743</v>
       </c>
       <c r="M8">
-        <v>0.6312005345303265</v>
+        <v>0.7674143894773456</v>
       </c>
       <c r="N8">
-        <v>0.6514764595818215</v>
+        <v>0.7674143894773456</v>
       </c>
       <c r="O8">
-        <v>0.7641889377796888</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="P8">
-        <v>0.7641889377796888</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="Q8">
-        <v>0.7670220073578649</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="R8">
-        <v>0.7670220073578649</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="S8">
-        <v>0.7842201255894294</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="T8">
-        <v>0.7842201255894294</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="U8">
-        <v>0.7842201255894294</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="V8">
-        <v>0.7885641294432191</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="W8">
-        <v>0.7946408361169706</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="X8">
-        <v>0.7985805882981436</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="Y8">
-        <v>0.8045408022678442</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="Z8">
-        <v>0.82904900656608</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="AA8">
-        <v>0.8677091434824197</v>
+        <v>0.9248333173591332</v>
       </c>
       <c r="AB8">
-        <v>0.8726997746976183</v>
+        <v>0.9248333173591332</v>
       </c>
       <c r="AC8">
-        <v>0.8732798080159101</v>
+        <v>0.9248333173591332</v>
       </c>
       <c r="AD8">
-        <v>0.9098544060794114</v>
+        <v>0.9363549181568737</v>
       </c>
       <c r="AE8">
-        <v>0.9132683110204749</v>
+        <v>0.9363549181568737</v>
       </c>
       <c r="AF8">
-        <v>0.9801852708301564</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9806304591871379</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9806304591871379</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -2622,100 +2622,100 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.198631655127862</v>
+        <v>0.2796222235897948</v>
       </c>
       <c r="E9">
-        <v>0.2054655251198885</v>
+        <v>0.2796222235897948</v>
       </c>
       <c r="F9">
-        <v>0.487065488597728</v>
+        <v>0.6964388353664923</v>
       </c>
       <c r="G9">
-        <v>0.487065488597728</v>
+        <v>0.6964388353664923</v>
       </c>
       <c r="H9">
-        <v>0.487065488597728</v>
+        <v>0.6964388353664923</v>
       </c>
       <c r="I9">
-        <v>0.487065488597728</v>
+        <v>0.6964388353664923</v>
       </c>
       <c r="J9">
-        <v>0.5103826500497364</v>
+        <v>0.6964388353664923</v>
       </c>
       <c r="K9">
-        <v>0.5623589626881763</v>
+        <v>0.7335553313198334</v>
       </c>
       <c r="L9">
-        <v>0.5703270358867489</v>
+        <v>0.7335553313198334</v>
       </c>
       <c r="M9">
-        <v>0.6159135835061297</v>
+        <v>0.7601058663673543</v>
       </c>
       <c r="N9">
-        <v>0.635586833751167</v>
+        <v>0.7601058663673543</v>
       </c>
       <c r="O9">
-        <v>0.7560767958445486</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="P9">
-        <v>0.7560767958445486</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="Q9">
-        <v>0.7612591998704145</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="R9">
-        <v>0.7612591998704145</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="S9">
-        <v>0.7838700420771703</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="T9">
-        <v>0.7838700420771703</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="U9">
-        <v>0.7838700420771703</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="V9">
-        <v>0.7891892962998132</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="W9">
-        <v>0.7975729283205655</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="X9">
-        <v>0.7991330748467356</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="Y9">
-        <v>0.803616217644757</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="Z9">
-        <v>0.8349142170379619</v>
+        <v>0.9134382133834898</v>
       </c>
       <c r="AA9">
-        <v>0.8718161041545732</v>
+        <v>0.925628003852943</v>
       </c>
       <c r="AB9">
-        <v>0.8734389892861376</v>
+        <v>0.925628003852943</v>
       </c>
       <c r="AC9">
-        <v>0.8734389892861376</v>
+        <v>0.925628003852943</v>
       </c>
       <c r="AD9">
-        <v>0.9167306675722988</v>
+        <v>0.9483837984700351</v>
       </c>
       <c r="AE9">
-        <v>0.9181213231346159</v>
+        <v>0.9483837984700351</v>
       </c>
       <c r="AF9">
-        <v>0.9788663329418227</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>0.9788663329418227</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.9788663329418227</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2729,100 +2729,100 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1930670815396631</v>
+        <v>0.2638522988577042</v>
       </c>
       <c r="E10">
-        <v>0.1946883074622109</v>
+        <v>0.2638522988577042</v>
       </c>
       <c r="F10">
-        <v>0.4941652378103317</v>
+        <v>0.6993757067192006</v>
       </c>
       <c r="G10">
-        <v>0.4941652378103317</v>
+        <v>0.6993757067192006</v>
       </c>
       <c r="H10">
-        <v>0.4941652378103317</v>
+        <v>0.6993757067192006</v>
       </c>
       <c r="I10">
-        <v>0.4941652378103317</v>
+        <v>0.6993757067192006</v>
       </c>
       <c r="J10">
-        <v>0.5223028188461156</v>
+        <v>0.6993757067192006</v>
       </c>
       <c r="K10">
-        <v>0.5577831224324508</v>
+        <v>0.7089931087274701</v>
       </c>
       <c r="L10">
-        <v>0.5803330423513761</v>
+        <v>0.7089931087274701</v>
       </c>
       <c r="M10">
-        <v>0.6271793550395137</v>
+        <v>0.7369473038926014</v>
       </c>
       <c r="N10">
-        <v>0.6339293432970402</v>
+        <v>0.7369473038926014</v>
       </c>
       <c r="O10">
-        <v>0.7571861868860718</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="P10">
-        <v>0.7607533912710737</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="Q10">
-        <v>0.7607533912710737</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="R10">
-        <v>0.7607533912710737</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="S10">
-        <v>0.7718203737851493</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="T10">
-        <v>0.7718203737851493</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="U10">
-        <v>0.7718203737851493</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="V10">
-        <v>0.7746909081025211</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="W10">
-        <v>0.7854376402644334</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="X10">
-        <v>0.7854376402644334</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="Y10">
-        <v>0.7937182202593246</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="Z10">
-        <v>0.8164310672196406</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="AA10">
-        <v>0.8638389190799001</v>
+        <v>0.9170348071500687</v>
       </c>
       <c r="AB10">
-        <v>0.8638389190799001</v>
+        <v>0.9170348071500687</v>
       </c>
       <c r="AC10">
-        <v>0.8684768083889839</v>
+        <v>0.9170348071500687</v>
       </c>
       <c r="AD10">
-        <v>0.9113091244453154</v>
+        <v>0.9385132177798792</v>
       </c>
       <c r="AE10">
-        <v>0.9113091244453154</v>
+        <v>0.9385132177798792</v>
       </c>
       <c r="AF10">
-        <v>0.9789405158772447</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9827559404809093</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9827559404809093</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2836,100 +2836,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2587224494303021</v>
+        <v>0.4088892372682069</v>
       </c>
       <c r="E11">
-        <v>0.346718569319434</v>
+        <v>0.513322298306908</v>
       </c>
       <c r="F11">
-        <v>0.5172142378550517</v>
+        <v>0.7648767622895656</v>
       </c>
       <c r="G11">
-        <v>0.5212048369930996</v>
+        <v>0.7648767622895656</v>
       </c>
       <c r="H11">
-        <v>0.5212048369930996</v>
+        <v>0.7648767622895656</v>
       </c>
       <c r="I11">
-        <v>0.5266675914114524</v>
+        <v>0.7648767622895656</v>
       </c>
       <c r="J11">
-        <v>0.542929036753993</v>
+        <v>0.7648767622895656</v>
       </c>
       <c r="K11">
-        <v>0.6064174136640416</v>
+        <v>0.8256051777971396</v>
       </c>
       <c r="L11">
-        <v>0.6064174136640416</v>
+        <v>0.8256051777971396</v>
       </c>
       <c r="M11">
-        <v>0.6326334383549314</v>
+        <v>0.8256051777971396</v>
       </c>
       <c r="N11">
-        <v>0.662204001891789</v>
+        <v>0.8258479740483263</v>
       </c>
       <c r="O11">
-        <v>0.7510267056085881</v>
+        <v>0.9317550816045215</v>
       </c>
       <c r="P11">
-        <v>0.7510267056085881</v>
+        <v>0.9317550816045215</v>
       </c>
       <c r="Q11">
-        <v>0.7530043019963434</v>
+        <v>0.9317550816045215</v>
       </c>
       <c r="R11">
-        <v>0.7530043019963434</v>
+        <v>0.9317550816045215</v>
       </c>
       <c r="S11">
-        <v>0.785213601431657</v>
+        <v>0.9367035342350292</v>
       </c>
       <c r="T11">
-        <v>0.785213601431657</v>
+        <v>0.9367035342350292</v>
       </c>
       <c r="U11">
-        <v>0.785213601431657</v>
+        <v>0.9367035342350292</v>
       </c>
       <c r="V11">
-        <v>0.7941906496072103</v>
+        <v>0.9367035342350292</v>
       </c>
       <c r="W11">
-        <v>0.796971237994706</v>
+        <v>0.9367035342350292</v>
       </c>
       <c r="X11">
-        <v>0.8016730959773367</v>
+        <v>0.9367035342350292</v>
       </c>
       <c r="Y11">
-        <v>0.8020062399706539</v>
+        <v>0.9367035342350292</v>
       </c>
       <c r="Z11">
-        <v>0.8351009232472111</v>
+        <v>0.9432308914171948</v>
       </c>
       <c r="AA11">
-        <v>0.8596332916331428</v>
+        <v>0.9432308914171948</v>
       </c>
       <c r="AB11">
-        <v>0.8727479832712245</v>
+        <v>0.9432308914171948</v>
       </c>
       <c r="AC11">
-        <v>0.8727479832712245</v>
+        <v>0.9432308914171948</v>
       </c>
       <c r="AD11">
-        <v>0.8993545520953558</v>
+        <v>0.9432308914171948</v>
       </c>
       <c r="AE11">
-        <v>0.9116466899458331</v>
+        <v>0.9432308914171948</v>
       </c>
       <c r="AF11">
-        <v>0.9729148526130172</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.9729148526130172</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.9729148526130172</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2991,34 +2991,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.8675305604687422</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5980591220809204</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>62</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3032,34 +3032,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8605005636156933</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6290518236768097</v>
-      </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>62</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -3073,34 +3073,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.7919074154158126</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5555504302500712</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>62</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -3114,34 +3114,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5176429475549383</v>
       </c>
       <c r="F5">
-        <v>0.5749898625861667</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>62</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -3155,34 +3155,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.8142410530465964</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5949121821919612</v>
-      </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>62</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -3196,34 +3196,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.6978610296055835</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5066612986998051</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>62</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -3237,34 +3237,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.6731168683905351</v>
       </c>
       <c r="F8">
-        <v>0.5121804942841308</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>62</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -3278,34 +3278,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6964388353664923</v>
       </c>
       <c r="F9">
-        <v>0.5103826500497364</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>62</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -3319,34 +3319,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6993757067192006</v>
       </c>
       <c r="F10">
-        <v>0.5223028188461156</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>62</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -3360,34 +3360,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.513322298306908</v>
       </c>
       <c r="F11">
-        <v>0.5172142378550517</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>62</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -3455,34 +3455,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8675305604687422</v>
       </c>
       <c r="F2">
-        <v>0.7602201584958009</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>62</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3496,34 +3496,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8605005636156933</v>
       </c>
       <c r="F3">
-        <v>0.7843959956997545</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>62</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -3537,34 +3537,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7919074154158126</v>
       </c>
       <c r="F4">
-        <v>0.7479742301482318</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>62</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -3578,34 +3578,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="F5">
-        <v>0.7726435708848217</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>62</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -3619,34 +3619,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8142410530465964</v>
       </c>
       <c r="F6">
-        <v>0.7810296929974272</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>62</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -3660,34 +3660,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7654978439607634</v>
       </c>
       <c r="F7">
-        <v>0.7610496314680827</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>62</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -3701,34 +3701,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7318950845269743</v>
       </c>
       <c r="F8">
-        <v>0.7641889377796888</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>62</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -3742,34 +3742,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7335553313198334</v>
       </c>
       <c r="F9">
-        <v>0.7560767958445486</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>62</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -3783,34 +3783,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7089931087274701</v>
       </c>
       <c r="F10">
-        <v>0.7571861868860718</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>62</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -3824,34 +3824,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7648767622895656</v>
       </c>
       <c r="F11">
-        <v>0.7510267056085881</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>62</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -3919,34 +3919,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8675305604687422</v>
       </c>
       <c r="F2">
-        <v>0.8117131674974862</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>62</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3960,34 +3960,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8605005636156933</v>
       </c>
       <c r="F3">
-        <v>0.8008015855404608</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>62</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -4001,34 +4001,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8286715182304096</v>
       </c>
       <c r="F4">
-        <v>0.8145506233807748</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>62</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -4042,34 +4042,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8651294535912084</v>
       </c>
       <c r="F5">
-        <v>0.800631961638967</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>62</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -4083,34 +4083,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8142410530465964</v>
       </c>
       <c r="F6">
-        <v>0.8032478848783707</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>62</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -4124,34 +4124,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="F7">
-        <v>0.822494618454132</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>62</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -4165,34 +4165,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="F8">
-        <v>0.8045408022678442</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>62</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -4206,34 +4206,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="F9">
-        <v>0.803616217644757</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>62</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -4247,34 +4247,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.888174680311256</v>
       </c>
       <c r="F10">
-        <v>0.8164310672196406</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>62</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -4288,34 +4288,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8256051777971396</v>
       </c>
       <c r="F11">
-        <v>0.8016730959773367</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>62</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -4383,34 +4383,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9493811629980546</v>
       </c>
       <c r="F2">
-        <v>0.921837509774139</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>62</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -4424,34 +4424,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9721820703591042</v>
       </c>
       <c r="F3">
-        <v>0.9058243583408663</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>62</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -4465,34 +4465,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9310844431023361</v>
       </c>
       <c r="F4">
-        <v>0.9210980405969668</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>62</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -4506,34 +4506,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9566907006251953</v>
       </c>
       <c r="F5">
-        <v>0.9085911839119738</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>62</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -4547,34 +4547,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9394237481632851</v>
       </c>
       <c r="F6">
-        <v>0.9139529702712496</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>62</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -4588,34 +4588,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>29</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9021198789380933</v>
       </c>
       <c r="F7">
-        <v>0.9012138018478678</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>62</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -4629,34 +4629,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9097290836149308</v>
       </c>
       <c r="F8">
-        <v>0.9098544060794114</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>62</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -4670,34 +4670,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9105148761293754</v>
       </c>
       <c r="F9">
-        <v>0.9167306675722988</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>62</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -4711,34 +4711,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>29</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9170348071500687</v>
       </c>
       <c r="F10">
-        <v>0.9113091244453154</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>62</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -4752,34 +4752,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9317550816045215</v>
       </c>
       <c r="F11">
-        <v>0.9116466899458331</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>62</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
